--- a/Cap2/PopNYs.xlsx
+++ b/Cap2/PopNYs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Documents\PGMC 31-07-2020 on\Tese\Cap2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Documents\PGMC 31-07-2020 on\Tese\Código\Cap2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF4D05C-05EF-4D35-8769-F73D2DB44E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B04581D-B0B7-4F3F-9B9D-273D35D1A9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{113C5162-F4B1-42BD-B228-32CD789BC8C9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="1541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="1537">
   <si>
     <t>Rank</t>
   </si>
@@ -5962,22 +5962,10 @@
     <t>Pop</t>
   </si>
   <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Sd</t>
-  </si>
-  <si>
-    <t>Range</t>
+    <t>HUDVL</t>
+  </si>
+  <si>
+    <t>G - HUDVL</t>
   </si>
 </sst>
 </file>
@@ -6392,7 +6380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B5181D-5DBF-446A-B11D-E7CDCE3A8E7A}">
   <dimension ref="A1:D1528"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6564,6 +6554,9 @@
       <c r="C14" s="4">
         <v>135560</v>
       </c>
+      <c r="D14" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1">
       <c r="A15" s="2">
@@ -6628,6 +6621,9 @@
       <c r="C19" s="4">
         <v>91382</v>
       </c>
+      <c r="D19" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="30.75" thickBot="1">
       <c r="A20" s="2">
@@ -6639,6 +6635,9 @@
       <c r="C20" s="4">
         <v>86488</v>
       </c>
+      <c r="D20" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="30.75" thickBot="1">
       <c r="A21" s="2">
@@ -6828,6 +6827,9 @@
       <c r="C35" s="4">
         <v>49909</v>
       </c>
+      <c r="D35" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1">
       <c r="A36" s="2">
@@ -6945,6 +6947,9 @@
       <c r="C44" s="4">
         <v>44177</v>
       </c>
+      <c r="D44" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="30.75" thickBot="1">
       <c r="A45" s="2">
@@ -7006,6 +7011,9 @@
       <c r="C49" s="4">
         <v>37642</v>
       </c>
+      <c r="D49" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="30.75" thickBot="1">
       <c r="A50" s="2">
@@ -7042,6 +7050,9 @@
       <c r="C52" s="4">
         <v>37114</v>
       </c>
+      <c r="D52" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="30.75" thickBot="1">
       <c r="A53" s="2">
@@ -7120,6 +7131,9 @@
       <c r="C58" s="4">
         <v>34210</v>
       </c>
+      <c r="D58" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="30.75" thickBot="1">
       <c r="A59" s="2">
@@ -7192,6 +7206,9 @@
       <c r="C64" s="4">
         <v>32295</v>
       </c>
+      <c r="D64" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1">
       <c r="A65" s="2">
@@ -7231,6 +7248,9 @@
       <c r="C67" s="4">
         <v>31217</v>
       </c>
+      <c r="D67" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="30.75" thickBot="1">
       <c r="A68" s="2">
@@ -7242,6 +7262,9 @@
       <c r="C68" s="4">
         <v>30905</v>
       </c>
+      <c r="D68" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1">
       <c r="A69" s="2">
@@ -7295,6 +7318,9 @@
       <c r="C72" s="4">
         <v>30381</v>
       </c>
+      <c r="D72" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="30.75" thickBot="1">
       <c r="A73" s="2">
@@ -7384,6 +7410,9 @@
       <c r="C79" s="4">
         <v>29299</v>
       </c>
+      <c r="D79" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1">
       <c r="A80" s="2">
@@ -7409,6 +7438,9 @@
       <c r="C81" s="4">
         <v>28588</v>
       </c>
+      <c r="D81" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1">
       <c r="A82" s="2">
@@ -7462,6 +7494,9 @@
       <c r="C85" s="4">
         <v>28255</v>
       </c>
+      <c r="D85" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" thickBot="1">
       <c r="A86" s="2">
@@ -7484,6 +7519,9 @@
       <c r="C87" s="4">
         <v>27963</v>
       </c>
+      <c r="D87" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="88" spans="1:4" ht="30.75" thickBot="1">
       <c r="A88" s="2">
@@ -7537,6 +7575,9 @@
       <c r="C91" s="4">
         <v>27296</v>
       </c>
+      <c r="D91" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="30.75" thickBot="1">
       <c r="A92" s="2">
@@ -7570,6 +7611,9 @@
       <c r="C94" s="4">
         <v>26660</v>
       </c>
+      <c r="D94" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="15.75" thickBot="1">
       <c r="A95" s="2">
@@ -7623,6 +7667,9 @@
       <c r="C98" s="4">
         <v>25086</v>
       </c>
+      <c r="D98" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="99" spans="1:4" ht="30.75" thickBot="1">
       <c r="A99" s="2">
@@ -7634,6 +7681,9 @@
       <c r="C99" s="4">
         <v>24666</v>
       </c>
+      <c r="D99" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="100" spans="1:4" ht="30.75" thickBot="1">
       <c r="A100" s="2">
@@ -7645,6 +7695,9 @@
       <c r="C100" s="4">
         <v>24571</v>
       </c>
+      <c r="D100" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="101" spans="1:4" ht="30.75" thickBot="1">
       <c r="A101" s="2">
@@ -7695,6 +7748,9 @@
       <c r="C104" s="4">
         <v>24151</v>
       </c>
+      <c r="D104" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="105" spans="1:4" ht="30.75" thickBot="1">
       <c r="A105" s="2">
@@ -7706,6 +7762,9 @@
       <c r="C105" s="4">
         <v>24075</v>
       </c>
+      <c r="D105" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="106" spans="1:4" ht="30.75" thickBot="1">
       <c r="A106" s="2">
@@ -7717,6 +7776,9 @@
       <c r="C106" s="4">
         <v>23827</v>
       </c>
+      <c r="D106" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="107" spans="1:4" ht="30.75" thickBot="1">
       <c r="A107" s="2">
@@ -7728,6 +7790,9 @@
       <c r="C107" s="4">
         <v>23070</v>
       </c>
+      <c r="D107" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="108" spans="1:4" ht="30.75" thickBot="1">
       <c r="A108" s="2">
@@ -7867,6 +7932,9 @@
       <c r="C118" s="4">
         <v>20954</v>
       </c>
+      <c r="D118" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="119" spans="1:4" ht="30.75" thickBot="1">
       <c r="A119" s="2">
@@ -7934,6 +8002,9 @@
       <c r="C123" s="4">
         <v>19799</v>
       </c>
+      <c r="D123" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="124" spans="1:4" ht="30.75" thickBot="1">
       <c r="A124" s="2">
@@ -7970,6 +8041,9 @@
       <c r="C126" s="4">
         <v>19274</v>
       </c>
+      <c r="D126" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="127" spans="1:4" ht="45.75" thickBot="1">
       <c r="A127" s="2">
@@ -8017,6 +8091,9 @@
       <c r="C130" s="4">
         <v>19066</v>
       </c>
+      <c r="D130" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="131" spans="1:4" ht="15.75" thickBot="1">
       <c r="A131" s="2">
@@ -8070,6 +8147,9 @@
       <c r="C134" s="4">
         <v>18153</v>
       </c>
+      <c r="D134" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="135" spans="1:4" ht="30.75" thickBot="1">
       <c r="A135" s="2">
@@ -8156,6 +8236,9 @@
       <c r="C141" s="4">
         <v>17606</v>
       </c>
+      <c r="D141" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="142" spans="1:4" ht="30.75" thickBot="1">
       <c r="A142" s="2">
@@ -8326,6 +8409,9 @@
       <c r="C154" s="4">
         <v>15577</v>
       </c>
+      <c r="D154" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="155" spans="1:4" ht="30.75" thickBot="1">
       <c r="A155" s="2">
@@ -8365,6 +8451,9 @@
       <c r="C157" s="4">
         <v>15351</v>
       </c>
+      <c r="D157" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="158" spans="1:4" ht="30.75" thickBot="1">
       <c r="A158" s="2">
@@ -8527,6 +8616,9 @@
       <c r="C169" s="4">
         <v>14443</v>
       </c>
+      <c r="D169" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="170" spans="1:4" ht="30.75" thickBot="1">
       <c r="A170" s="2">
@@ -8566,6 +8658,9 @@
       <c r="C172" s="4">
         <v>14162</v>
       </c>
+      <c r="D172" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="173" spans="1:4" ht="30.75" thickBot="1">
       <c r="A173" s="2">
@@ -8605,6 +8700,9 @@
       <c r="C175" s="4">
         <v>13991</v>
       </c>
+      <c r="D175" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="176" spans="1:4" ht="30.75" thickBot="1">
       <c r="A176" s="2">
@@ -8616,6 +8714,9 @@
       <c r="C176" s="4">
         <v>13943</v>
       </c>
+      <c r="D176" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="177" spans="1:4" ht="30.75" thickBot="1">
       <c r="A177" s="2">
@@ -8683,6 +8784,9 @@
       <c r="C181" s="4">
         <v>13634</v>
       </c>
+      <c r="D181" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="182" spans="1:4" ht="30.75" thickBot="1">
       <c r="A182" s="2">
@@ -8764,6 +8868,9 @@
       <c r="C187" s="4">
         <v>12799</v>
       </c>
+      <c r="D187" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="188" spans="1:4" ht="30.75" thickBot="1">
       <c r="A188" s="2">
@@ -8831,6 +8938,9 @@
       <c r="C192" s="4">
         <v>12599</v>
       </c>
+      <c r="D192" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="193" spans="1:4" ht="15.75" thickBot="1">
       <c r="A193" s="2">
@@ -8853,6 +8963,9 @@
       <c r="C194" s="4">
         <v>12474</v>
       </c>
+      <c r="D194" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="195" spans="1:4" ht="30.75" thickBot="1">
       <c r="A195" s="2">
@@ -8864,6 +8977,9 @@
       <c r="C195" s="4">
         <v>12445</v>
       </c>
+      <c r="D195" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="196" spans="1:4" ht="30.75" thickBot="1">
       <c r="A196" s="2">
@@ -8939,6 +9055,9 @@
       <c r="C201" s="4">
         <v>12165</v>
       </c>
+      <c r="D201" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="202" spans="1:4" ht="45.75" thickBot="1">
       <c r="A202" s="2">
@@ -8950,6 +9069,9 @@
       <c r="C202" s="4">
         <v>12065</v>
       </c>
+      <c r="D202" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="203" spans="1:4" ht="45.75" thickBot="1">
       <c r="A203" s="2">
@@ -8986,6 +9108,9 @@
       <c r="C205" s="4">
         <v>12023</v>
       </c>
+      <c r="D205" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="206" spans="1:4" ht="45.75" thickBot="1">
       <c r="A206" s="2">
@@ -9011,6 +9136,9 @@
       <c r="C207" s="4">
         <v>11866</v>
       </c>
+      <c r="D207" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="208" spans="1:4" ht="30.75" thickBot="1">
       <c r="A208" s="2">
@@ -9050,6 +9178,9 @@
       <c r="C210" s="4">
         <v>11597</v>
       </c>
+      <c r="D210" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="211" spans="1:4" ht="30.75" thickBot="1">
       <c r="A211" s="2">
@@ -9061,6 +9192,9 @@
       <c r="C211" s="4">
         <v>11570</v>
       </c>
+      <c r="D211" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="212" spans="1:4" ht="30.75" thickBot="1">
       <c r="A212" s="2">
@@ -9072,6 +9206,9 @@
       <c r="C212" s="4">
         <v>11453</v>
       </c>
+      <c r="D212" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="213" spans="1:4" ht="30.75" thickBot="1">
       <c r="A213" s="2">
@@ -9083,6 +9220,9 @@
       <c r="C213" s="4">
         <v>11436</v>
       </c>
+      <c r="D213" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="214" spans="1:4" ht="15.75" thickBot="1">
       <c r="A214" s="2">
@@ -9108,6 +9248,9 @@
       <c r="C215" s="4">
         <v>11360</v>
       </c>
+      <c r="D215" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="216" spans="1:4" ht="15.75" thickBot="1">
       <c r="A216" s="2">
@@ -9133,6 +9276,9 @@
       <c r="C217" s="4">
         <v>11154</v>
       </c>
+      <c r="D217" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="218" spans="1:4" ht="30.75" thickBot="1">
       <c r="A218" s="2">
@@ -9183,6 +9329,9 @@
       <c r="C221" s="4">
         <v>11070</v>
       </c>
+      <c r="D221" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="222" spans="1:4" ht="30.75" thickBot="1">
       <c r="A222" s="2">
@@ -9222,6 +9371,9 @@
       <c r="C224" s="4">
         <v>10943</v>
       </c>
+      <c r="D224" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="225" spans="1:4" ht="30.75" thickBot="1">
       <c r="A225" s="2">
@@ -9244,6 +9396,9 @@
       <c r="C226" s="4">
         <v>10810</v>
       </c>
+      <c r="D226" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="227" spans="1:4" ht="30.75" thickBot="1">
       <c r="A227" s="2">
@@ -9311,6 +9466,9 @@
       <c r="C231" s="4">
         <v>10514</v>
       </c>
+      <c r="D231" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="232" spans="1:4" ht="30.75" thickBot="1">
       <c r="A232" s="2">
@@ -9350,6 +9508,9 @@
       <c r="C234" s="4">
         <v>10254</v>
       </c>
+      <c r="D234" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="235" spans="1:4" ht="45.75" thickBot="1">
       <c r="A235" s="2">
@@ -9361,6 +9522,9 @@
       <c r="C235" s="4">
         <v>10250</v>
       </c>
+      <c r="D235" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="236" spans="1:4" ht="30.75" thickBot="1">
       <c r="A236" s="2">
@@ -9411,6 +9575,9 @@
       <c r="C239" s="4">
         <v>10122</v>
       </c>
+      <c r="D239" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="240" spans="1:4" ht="15.75" thickBot="1">
       <c r="A240" s="2">
@@ -9528,6 +9695,9 @@
       <c r="C248" s="4">
         <v>9715</v>
       </c>
+      <c r="D248" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="249" spans="1:4" ht="30.75" thickBot="1">
       <c r="A249" s="2">
@@ -9539,6 +9709,9 @@
       <c r="C249" s="4">
         <v>9703</v>
       </c>
+      <c r="D249" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="250" spans="1:4" ht="45.75" thickBot="1">
       <c r="A250" s="2">
@@ -9698,6 +9871,9 @@
       <c r="C261" s="4">
         <v>9202</v>
       </c>
+      <c r="D261" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="262" spans="1:4" ht="45.75" thickBot="1">
       <c r="A262" s="2">
@@ -9787,6 +9963,9 @@
       <c r="C268" s="4">
         <v>8782</v>
       </c>
+      <c r="D268" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="269" spans="1:4" ht="30.75" thickBot="1">
       <c r="A269" s="2">
@@ -9798,6 +9977,9 @@
       <c r="C269" s="4">
         <v>8770</v>
       </c>
+      <c r="D269" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="270" spans="1:4" ht="30.75" thickBot="1">
       <c r="A270" s="2">
@@ -9865,6 +10047,9 @@
       <c r="C274" s="4">
         <v>8660</v>
       </c>
+      <c r="D274" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="275" spans="1:4" ht="30.75" thickBot="1">
       <c r="A275" s="2">
@@ -9876,6 +10061,9 @@
       <c r="C275" s="4">
         <v>8595</v>
       </c>
+      <c r="D275" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="276" spans="1:4" ht="45.75" thickBot="1">
       <c r="A276" s="2">
@@ -9887,6 +10075,9 @@
       <c r="C276" s="4">
         <v>8586</v>
       </c>
+      <c r="D276" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="277" spans="1:4" ht="30.75" thickBot="1">
       <c r="A277" s="2">
@@ -9909,6 +10100,9 @@
       <c r="C278" s="4">
         <v>8485</v>
       </c>
+      <c r="D278" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="279" spans="1:4" ht="60.75" thickBot="1">
       <c r="A279" s="2" t="s">
@@ -9976,6 +10170,9 @@
       <c r="C283" s="4">
         <v>8396</v>
       </c>
+      <c r="D283" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="284" spans="1:4" ht="15.75" thickBot="1">
       <c r="A284" s="2">
@@ -10001,6 +10198,9 @@
       <c r="C285" s="4">
         <v>8373</v>
       </c>
+      <c r="D285" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="286" spans="1:4" ht="15.75" thickBot="1">
       <c r="A286" s="2">
@@ -10096,6 +10296,9 @@
       <c r="C292" s="4">
         <v>8256</v>
       </c>
+      <c r="D292" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="293" spans="1:4" ht="30.75" thickBot="1">
       <c r="A293" s="2">
@@ -10163,6 +10366,9 @@
       <c r="C297" s="4">
         <v>8155</v>
       </c>
+      <c r="D297" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="298" spans="1:4" ht="15.75" thickBot="1">
       <c r="A298" s="2">
@@ -10216,6 +10422,9 @@
       <c r="C301" s="4">
         <v>8057</v>
       </c>
+      <c r="D301" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="302" spans="1:4" ht="15.75" thickBot="1">
       <c r="A302" s="2">
@@ -10277,6 +10486,9 @@
       <c r="C306" s="4">
         <v>7772</v>
       </c>
+      <c r="D306" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="307" spans="1:4" ht="30.75" thickBot="1">
       <c r="A307" s="2">
@@ -10302,6 +10514,9 @@
       <c r="C308" s="4">
         <v>7742</v>
       </c>
+      <c r="D308" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="309" spans="1:4" ht="30.75" thickBot="1">
       <c r="A309" s="2">
@@ -10394,6 +10609,9 @@
       <c r="C315" s="4">
         <v>7616</v>
       </c>
+      <c r="D315" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="316" spans="1:4" ht="30.75" thickBot="1">
       <c r="A316" s="2">
@@ -10531,6 +10749,9 @@
       <c r="C325" s="4">
         <v>7329</v>
       </c>
+      <c r="D325" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="326" spans="1:4" ht="30.75" thickBot="1">
       <c r="A326" s="2">
@@ -10578,6 +10799,9 @@
       <c r="C329" s="4">
         <v>7268</v>
       </c>
+      <c r="D329" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="330" spans="1:4" ht="15.75" thickBot="1">
       <c r="A330" s="2">
@@ -10642,6 +10866,9 @@
       <c r="C334" s="4">
         <v>7173</v>
       </c>
+      <c r="D334" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="335" spans="1:4" ht="45.75" thickBot="1">
       <c r="A335" s="2">
@@ -10653,6 +10880,9 @@
       <c r="C335" s="4">
         <v>7165</v>
       </c>
+      <c r="D335" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="336" spans="1:4" ht="30.75" thickBot="1">
       <c r="A336" s="2">
@@ -10865,6 +11095,9 @@
       <c r="C351" s="4">
         <v>6785</v>
       </c>
+      <c r="D351" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="352" spans="1:4" ht="45.75" thickBot="1">
       <c r="A352" s="2">
@@ -10915,6 +11148,9 @@
       <c r="C355" s="4">
         <v>6731</v>
       </c>
+      <c r="D355" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="356" spans="1:4" ht="15.75" thickBot="1">
       <c r="A356" s="2">
@@ -10926,6 +11162,9 @@
       <c r="C356" s="4">
         <v>6724</v>
       </c>
+      <c r="D356" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="357" spans="1:4" ht="30.75" thickBot="1">
       <c r="A357" s="2">
@@ -11090,6 +11329,9 @@
       <c r="C369" s="4">
         <v>6529</v>
       </c>
+      <c r="D369" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="370" spans="1:4" ht="15.75" thickBot="1">
       <c r="A370" s="2">
@@ -11224,6 +11466,9 @@
       <c r="C379" s="4">
         <v>6423</v>
       </c>
+      <c r="D379" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="380" spans="1:4" ht="45.75" thickBot="1">
       <c r="A380" s="2" t="s">
@@ -11447,6 +11692,9 @@
       <c r="C396" s="4">
         <v>6080</v>
       </c>
+      <c r="D396" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="397" spans="1:4" ht="30.75" thickBot="1">
       <c r="A397" s="2">
@@ -11542,6 +11790,9 @@
       <c r="C403" s="4">
         <v>5885</v>
       </c>
+      <c r="D403" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="404" spans="1:4" ht="30.75" thickBot="1">
       <c r="A404" s="2">
@@ -11553,6 +11804,9 @@
       <c r="C404" s="4">
         <v>5858</v>
       </c>
+      <c r="D404" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="405" spans="1:4" ht="15.75" thickBot="1">
       <c r="A405" s="2">
@@ -11606,6 +11860,9 @@
       <c r="C408" s="4">
         <v>5804</v>
       </c>
+      <c r="D408" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="409" spans="1:4" ht="30.75" thickBot="1">
       <c r="A409" s="2">
@@ -11656,6 +11913,9 @@
       <c r="C412" s="4">
         <v>5746</v>
       </c>
+      <c r="D412" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="413" spans="1:4" ht="30.75" thickBot="1">
       <c r="A413" s="2">
@@ -11751,6 +12011,9 @@
       <c r="C419" s="4">
         <v>5648</v>
       </c>
+      <c r="D419" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="420" spans="1:4" ht="30.75" thickBot="1">
       <c r="A420" s="2">
@@ -11790,6 +12053,9 @@
       <c r="C422" s="4">
         <v>5620</v>
       </c>
+      <c r="D422" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="423" spans="1:4" ht="30.75" thickBot="1">
       <c r="A423" s="2">
@@ -11896,6 +12162,9 @@
       <c r="C430" s="4">
         <v>5516</v>
       </c>
+      <c r="D430" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="431" spans="1:4" ht="75.75" thickBot="1">
       <c r="A431" s="2" t="s">
@@ -11907,6 +12176,9 @@
       <c r="C431" s="4">
         <v>5497</v>
       </c>
+      <c r="D431" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="432" spans="1:4" ht="75.75" thickBot="1">
       <c r="A432" s="2" t="s">
@@ -12002,6 +12274,9 @@
       <c r="C438" s="4">
         <v>5385</v>
       </c>
+      <c r="D438" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="439" spans="1:4" ht="15.75" thickBot="1">
       <c r="A439" s="2">
@@ -12055,6 +12330,9 @@
       <c r="C442" s="4">
         <v>5344</v>
       </c>
+      <c r="D442" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="443" spans="1:4" ht="45.75" thickBot="1">
       <c r="A443" s="2">
@@ -12080,6 +12358,9 @@
       <c r="C444" s="4">
         <v>5262</v>
       </c>
+      <c r="D444" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="445" spans="1:4" ht="30.75" thickBot="1">
       <c r="A445" s="2">
@@ -12183,6 +12464,9 @@
       <c r="C452" s="4">
         <v>5167</v>
       </c>
+      <c r="D452" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="453" spans="1:4" ht="15.75" thickBot="1">
       <c r="A453" s="2">
@@ -12728,6 +13012,9 @@
       <c r="C492" s="4">
         <v>4689</v>
       </c>
+      <c r="D492" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="493" spans="1:4" ht="45.75" thickBot="1">
       <c r="A493" s="2">
@@ -12792,6 +13079,9 @@
       <c r="C497" s="4">
         <v>4622</v>
       </c>
+      <c r="D497" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="498" spans="1:4" ht="30.75" thickBot="1">
       <c r="A498" s="2">
@@ -12803,6 +13093,9 @@
       <c r="C498" s="4">
         <v>4616</v>
       </c>
+      <c r="D498" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="499" spans="1:4" ht="30.75" thickBot="1">
       <c r="A499" s="2">
@@ -12814,6 +13107,9 @@
       <c r="C499" s="4">
         <v>4610</v>
       </c>
+      <c r="D499" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="500" spans="1:4" ht="45.75" thickBot="1">
       <c r="A500" s="2">
@@ -12937,6 +13233,9 @@
       <c r="C508" s="4">
         <v>4527</v>
       </c>
+      <c r="D508" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="509" spans="1:4" ht="30.75" thickBot="1">
       <c r="A509" s="2">
@@ -13015,6 +13314,9 @@
       <c r="C514" s="4">
         <v>4492</v>
       </c>
+      <c r="D514" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="515" spans="1:4" ht="30.75" thickBot="1">
       <c r="A515" s="2">
@@ -13110,6 +13412,9 @@
       <c r="C521" s="4">
         <v>4303</v>
       </c>
+      <c r="D521" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="522" spans="1:4" ht="30.75" thickBot="1">
       <c r="A522" s="2">
@@ -13535,6 +13840,9 @@
       <c r="C552" s="4">
         <v>4032</v>
       </c>
+      <c r="D552" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="553" spans="1:4" ht="30.75" thickBot="1">
       <c r="A553" s="2">
@@ -13644,6 +13952,9 @@
       <c r="C560" s="4">
         <v>3949</v>
       </c>
+      <c r="D560" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="561" spans="1:4" ht="30.75" thickBot="1">
       <c r="A561" s="2">
@@ -13750,6 +14061,9 @@
       <c r="C568" s="4">
         <v>3847</v>
       </c>
+      <c r="D568" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="569" spans="1:4" ht="30.75" thickBot="1">
       <c r="A569" s="2">
@@ -13761,6 +14075,9 @@
       <c r="C569" s="4">
         <v>3846</v>
       </c>
+      <c r="D569" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="570" spans="1:4" ht="30.75" thickBot="1">
       <c r="A570" s="2">
@@ -13772,6 +14089,9 @@
       <c r="C570" s="4">
         <v>3841</v>
       </c>
+      <c r="D570" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="571" spans="1:4" ht="30.75" thickBot="1">
       <c r="A571" s="2">
@@ -13909,6 +14229,9 @@
       <c r="C580" s="4">
         <v>3743</v>
       </c>
+      <c r="D580" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="581" spans="1:4" ht="30.75" thickBot="1">
       <c r="A581" s="2">
@@ -14065,6 +14388,9 @@
       <c r="C592" s="4">
         <v>3647</v>
       </c>
+      <c r="D592" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="593" spans="1:4" ht="30.75" thickBot="1">
       <c r="A593" s="2">
@@ -14199,6 +14525,9 @@
       <c r="C602" s="4">
         <v>3562</v>
       </c>
+      <c r="D602" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="603" spans="1:4" ht="30.75" thickBot="1">
       <c r="A603" s="2">
@@ -14266,6 +14595,9 @@
       <c r="C607" s="4">
         <v>3534</v>
       </c>
+      <c r="D607" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="608" spans="1:4" ht="30.75" thickBot="1">
       <c r="A608" s="2">
@@ -14277,6 +14609,9 @@
       <c r="C608" s="4">
         <v>3511</v>
       </c>
+      <c r="D608" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="609" spans="1:4" ht="15.75" thickBot="1">
       <c r="A609" s="2">
@@ -14358,6 +14693,9 @@
       <c r="C614" s="4">
         <v>3484</v>
       </c>
+      <c r="D614" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="615" spans="1:4" ht="15.75" thickBot="1">
       <c r="A615" s="2">
@@ -14425,6 +14763,9 @@
       <c r="C619" s="4">
         <v>3451</v>
       </c>
+      <c r="D619" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="620" spans="1:4" ht="30.75" thickBot="1">
       <c r="A620" s="2">
@@ -14562,6 +14903,9 @@
       <c r="C629" s="4">
         <v>3387</v>
       </c>
+      <c r="D629" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="630" spans="1:4" ht="75.75" thickBot="1">
       <c r="A630" s="2" t="s">
@@ -14780,6 +15124,9 @@
       <c r="C645" s="4">
         <v>3269</v>
       </c>
+      <c r="D645" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="646" spans="1:4" ht="30.75" thickBot="1">
       <c r="A646" s="2">
@@ -14942,6 +15289,9 @@
       <c r="C657" s="4">
         <v>3210</v>
       </c>
+      <c r="D657" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="658" spans="1:4" ht="45.75" thickBot="1">
       <c r="A658" s="2">
@@ -15048,6 +15398,9 @@
       <c r="C665" s="4">
         <v>3148</v>
       </c>
+      <c r="D665" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="666" spans="1:4" ht="120.75" thickBot="1">
       <c r="A666" s="2" t="s">
@@ -15117,6 +15470,9 @@
       <c r="C671" s="4">
         <v>3116</v>
       </c>
+      <c r="D671" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="672" spans="1:4" ht="45.75" thickBot="1">
       <c r="A672" s="2">
@@ -15128,6 +15484,9 @@
       <c r="C672" s="4">
         <v>3091</v>
       </c>
+      <c r="D672" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="673" spans="1:4" ht="30.75" thickBot="1">
       <c r="A673" s="2">
@@ -15262,6 +15621,9 @@
       <c r="C682" s="4">
         <v>3007</v>
       </c>
+      <c r="D682" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="683" spans="1:4" ht="30.75" thickBot="1">
       <c r="A683" s="2">
@@ -15396,6 +15758,9 @@
       <c r="C692" s="4">
         <v>2943</v>
       </c>
+      <c r="D692" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="693" spans="1:4" ht="30.75" thickBot="1">
       <c r="A693" s="2">
@@ -15463,6 +15828,9 @@
       <c r="C697" s="4">
         <v>2915</v>
       </c>
+      <c r="D697" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="698" spans="1:4" ht="15.75" thickBot="1">
       <c r="A698" s="2">
@@ -15572,6 +15940,9 @@
       <c r="C705" s="4">
         <v>2866</v>
       </c>
+      <c r="D705" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="706" spans="1:4" ht="30.75" thickBot="1">
       <c r="A706" s="2">
@@ -15999,6 +16370,9 @@
       <c r="C737" s="4">
         <v>2687</v>
       </c>
+      <c r="D737" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="738" spans="1:4" ht="30.75" thickBot="1">
       <c r="A738" s="2">
@@ -16038,6 +16412,9 @@
       <c r="C740" s="4">
         <v>2672</v>
       </c>
+      <c r="D740" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="741" spans="1:4" ht="30.75" thickBot="1">
       <c r="A741" s="2">
@@ -16063,6 +16440,9 @@
       <c r="C742" s="4">
         <v>2668</v>
       </c>
+      <c r="D742" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="743" spans="1:4" ht="60.75" thickBot="1">
       <c r="A743" s="2" t="s">
@@ -16359,6 +16739,9 @@
       <c r="C764" s="4">
         <v>2570</v>
       </c>
+      <c r="D764" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="765" spans="1:4" ht="90.75" thickBot="1">
       <c r="A765" s="2" t="s">
@@ -16454,6 +16837,9 @@
       <c r="C771" s="4">
         <v>2540</v>
       </c>
+      <c r="D771" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="772" spans="1:4" ht="45.75" thickBot="1">
       <c r="A772" s="2">
@@ -16756,6 +17142,9 @@
       <c r="C793" s="4">
         <v>2402</v>
       </c>
+      <c r="D793" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="794" spans="1:4" ht="30.75" thickBot="1">
       <c r="A794" s="2">
@@ -16904,6 +17293,9 @@
       <c r="C804" s="4">
         <v>2353</v>
       </c>
+      <c r="D804" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="805" spans="1:4" ht="75.75" thickBot="1">
       <c r="A805" s="2" t="s">
@@ -17220,6 +17612,9 @@
       <c r="C827" s="4">
         <v>2262</v>
       </c>
+      <c r="D827" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="828" spans="1:4" ht="60.75" thickBot="1">
       <c r="A828" s="2" t="s">
@@ -17231,6 +17626,9 @@
       <c r="C828" s="4">
         <v>2260</v>
       </c>
+      <c r="D828" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="829" spans="1:4" ht="60.75" thickBot="1">
       <c r="A829" s="2" t="s">
@@ -17340,6 +17738,9 @@
       <c r="C836" s="4">
         <v>2228</v>
       </c>
+      <c r="D836" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="837" spans="1:4" ht="15.75" thickBot="1">
       <c r="A837" s="2">
@@ -17620,6 +18021,9 @@
       <c r="C857" s="4">
         <v>2140</v>
       </c>
+      <c r="D857" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="858" spans="1:4" ht="60.75" thickBot="1">
       <c r="A858" s="2" t="s">
@@ -18131,6 +18535,9 @@
       <c r="C895" s="4">
         <v>2029</v>
       </c>
+      <c r="D895" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="896" spans="1:4" ht="90.75" thickBot="1">
       <c r="A896" s="2" t="s">
@@ -18198,6 +18605,9 @@
       <c r="C900" s="4">
         <v>2014</v>
       </c>
+      <c r="D900" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="901" spans="1:4" ht="60.75" thickBot="1">
       <c r="A901" s="2" t="s">
@@ -18614,6 +19024,9 @@
       <c r="C931" s="4">
         <v>1899</v>
       </c>
+      <c r="D931" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="932" spans="1:4" ht="30.75" thickBot="1">
       <c r="A932" s="2">
@@ -19154,6 +19567,9 @@
       <c r="C970" s="4">
         <v>1775</v>
       </c>
+      <c r="D970" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="971" spans="1:4" ht="60.75" thickBot="1">
       <c r="A971" s="2">
@@ -20060,6 +20476,9 @@
       <c r="C1036" s="4">
         <v>1604</v>
       </c>
+      <c r="D1036" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="1037" spans="1:4" ht="45.75" thickBot="1">
       <c r="A1037" s="2">
@@ -20544,6 +20963,9 @@
       <c r="C1071" s="4">
         <v>1461</v>
       </c>
+      <c r="D1071" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="1072" spans="1:4" ht="75.75" thickBot="1">
       <c r="A1072" s="2" t="s">
@@ -21321,6 +21743,9 @@
       <c r="C1128" s="4">
         <v>1291</v>
       </c>
+      <c r="D1128" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="1129" spans="1:4" ht="30.75" thickBot="1">
       <c r="A1129" s="4">
@@ -21846,6 +22271,9 @@
       <c r="C1167" s="4">
         <v>1143</v>
       </c>
+      <c r="D1167" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="1168" spans="1:4" ht="30.75" thickBot="1">
       <c r="A1168" s="4">
@@ -21857,6 +22285,9 @@
       <c r="C1168" s="4">
         <v>1140</v>
       </c>
+      <c r="D1168" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="1169" spans="1:4" ht="30.75" thickBot="1">
       <c r="A1169" s="4">
@@ -22506,6 +22937,9 @@
       <c r="C1215" s="4">
         <v>1026</v>
       </c>
+      <c r="D1215" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="1216" spans="1:4" ht="75.75" thickBot="1">
       <c r="A1216" s="2" t="s">
@@ -22587,6 +23021,9 @@
       <c r="C1221" s="4">
         <v>1012</v>
       </c>
+      <c r="D1221" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="1222" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1222" s="4">
@@ -23188,6 +23625,9 @@
       <c r="C1265" s="2">
         <v>924</v>
       </c>
+      <c r="D1265" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="1266" spans="1:4" ht="30.75" thickBot="1">
       <c r="A1266" s="4">
@@ -23241,6 +23681,9 @@
       <c r="C1269" s="2">
         <v>918</v>
       </c>
+      <c r="D1269" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="1270" spans="1:4" ht="30.75" thickBot="1">
       <c r="A1270" s="4">
@@ -23520,6 +23963,9 @@
       <c r="C1290" s="2">
         <v>858</v>
       </c>
+      <c r="D1290" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="1291" spans="1:4" ht="75.75" thickBot="1">
       <c r="A1291" s="2" t="s">
@@ -24325,6 +24771,9 @@
       <c r="C1349" s="2">
         <v>713</v>
       </c>
+      <c r="D1349" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="1350" spans="1:4" ht="30.75" thickBot="1">
       <c r="A1350" s="4">
@@ -24543,6 +24992,9 @@
       <c r="C1365" s="2">
         <v>658</v>
       </c>
+      <c r="D1365" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="1366" spans="1:4" ht="30.75" thickBot="1">
       <c r="A1366" s="4">
@@ -24568,6 +25020,9 @@
       <c r="C1367" s="2">
         <v>653</v>
       </c>
+      <c r="D1367" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="1368" spans="1:4" ht="30.75" thickBot="1">
       <c r="A1368" s="4">
@@ -25102,6 +25557,9 @@
       <c r="C1406" s="2">
         <v>545</v>
       </c>
+      <c r="D1406" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="1407" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1407" s="4">
@@ -25155,6 +25613,9 @@
       <c r="C1410" s="2">
         <v>524</v>
       </c>
+      <c r="D1410" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="1411" spans="1:4" ht="75.75" thickBot="1">
       <c r="A1411" s="2" t="s">
@@ -25364,6 +25825,9 @@
       <c r="C1426" s="2">
         <v>484</v>
       </c>
+      <c r="D1426" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="1427" spans="1:4" ht="45.75" thickBot="1">
       <c r="A1427" s="4">
@@ -25822,6 +26286,9 @@
       <c r="C1460" s="2">
         <v>383</v>
       </c>
+      <c r="D1460" t="s">
+        <v>1535</v>
+      </c>
     </row>
     <row r="1461" spans="1:4" ht="45.75" thickBot="1">
       <c r="A1461" s="4">
@@ -26291,6 +26758,9 @@
       </c>
       <c r="C1494" s="2">
         <v>290</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="1495" spans="1:4" ht="30.75" thickBot="1">
@@ -26864,7 +27334,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833DD767-A42F-4B5C-A28D-4029A3A23FB3}">
-  <dimension ref="B1:I7"/>
+  <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -26876,197 +27346,80 @@
     <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:3">
       <c r="B1" t="s">
         <v>1526</v>
       </c>
       <c r="C1" t="s">
         <v>1534</v>
       </c>
-      <c r="D1" t="s">
-        <v>1535</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
         <v>1536</v>
       </c>
-      <c r="F1" t="s">
-        <v>1537</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1538</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1540</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9">
-      <c r="B2" t="s">
+      <c r="C2">
+        <f>SUMIF(Ranking!$D$2:$D$1528,"HUDVL",Ranking!$C$2:$C$1528)</f>
+        <v>1872897</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
         <v>1528</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <f>SUMIF(Ranking!$D$2:$D$1528,"WEST",Ranking!$C$2:$C$1528)</f>
         <v>1789613</v>
       </c>
-      <c r="D2">
-        <v>1.21</v>
-      </c>
-      <c r="E2">
-        <v>1.78</v>
-      </c>
-      <c r="F2">
-        <v>1.79</v>
-      </c>
-      <c r="G2">
-        <v>2.8</v>
-      </c>
-      <c r="H2">
-        <v>1.59</v>
-      </c>
-      <c r="I2">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
         <v>1533</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <f>SUMIF(Ranking!$D$2:$D$1528,"CENTRL",Ranking!$C$2:$C$1528)</f>
         <v>1567026</v>
       </c>
-      <c r="D3">
-        <v>1.22</v>
-      </c>
-      <c r="E3">
-        <v>1.84</v>
-      </c>
-      <c r="F3">
-        <v>1.85</v>
-      </c>
-      <c r="G3">
-        <v>3.02</v>
-      </c>
-      <c r="H3">
-        <v>1.8</v>
-      </c>
-      <c r="I3">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
         <v>1532</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <f>SUMIF(Ranking!$D$2:$D$1528,"CAPITL",Ranking!$C$2:$C$1528)</f>
         <v>1226036</v>
       </c>
-      <c r="D4">
-        <v>0.84</v>
-      </c>
-      <c r="E4">
-        <v>1.38</v>
-      </c>
-      <c r="F4">
-        <v>1.4</v>
-      </c>
-      <c r="G4">
-        <v>2.42</v>
-      </c>
-      <c r="H4">
-        <v>1.58</v>
-      </c>
-      <c r="I4">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
         <v>1530</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <f>SUMIF(Ranking!$D$2:$D$1528,"MHKVL",Ranking!$C$2:$C$1528)</f>
         <v>1003915</v>
       </c>
-      <c r="D5">
-        <v>0.49</v>
-      </c>
-      <c r="E5">
-        <v>0.9</v>
-      </c>
-      <c r="F5">
-        <v>0.91</v>
-      </c>
-      <c r="G5">
-        <v>1.42</v>
-      </c>
-      <c r="H5">
-        <v>0.94</v>
-      </c>
-      <c r="I5">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
         <v>1529</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <f>SUMIF(Ranking!$D$2:$D$1528,"GENESE",Ranking!$C$2:$C$1528)</f>
         <v>863002</v>
       </c>
-      <c r="D6">
-        <v>0.71</v>
-      </c>
-      <c r="E6">
-        <v>1.24</v>
-      </c>
-      <c r="F6">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="G6">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="H6">
-        <v>1.37</v>
-      </c>
-      <c r="I6">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
         <v>1531</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <f>SUMIF(Ranking!$D$2:$D$1528,"NORTH",Ranking!$C$2:$C$1528)</f>
         <v>149680</v>
       </c>
-      <c r="D7">
-        <v>0.27</v>
-      </c>
-      <c r="E7">
-        <v>0.49</v>
-      </c>
-      <c r="F7">
-        <v>0.51</v>
-      </c>
-      <c r="G7">
-        <v>1.31</v>
-      </c>
-      <c r="H7">
-        <v>1.03</v>
-      </c>
-      <c r="I7">
-        <v>6.2E-2</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C7">
-    <sortCondition descending="1" ref="C2:C7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I8">
+    <sortCondition descending="1" ref="C2:C8"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
